--- a/tests/WebVella.Tefter.Tests/Files/TemplatePlacement2.xlsx
+++ b/tests/WebVella.Tefter.Tests/Files/TemplatePlacement2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.Tefter\tests\WebVella.Tefter.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21045C24-EDCE-42DD-B754-9032FE11AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F899F9F-63C7-4F9F-A1A8-42250962C219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="12375" windowWidth="29040" windowHeight="15720" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="12072" yWindow="5472" windowWidth="28776" windowHeight="15456" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="{{name}}" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,19 +26,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>{{position}}</t>
+    <t>context1</t>
   </si>
   <si>
-    <t>{{name}}</t>
+    <t>context 2</t>
+  </si>
+  <si>
+    <t>context 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +55,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +101,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,26 +442,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B03595-8542-41A8-B6B5-886637562298}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81CDE04-363B-4839-A800-71666C3D7C99}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="72.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
